--- a/src/source/other/anforderungskatalog.xlsx
+++ b/src/source/other/anforderungskatalog.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Anforderungen" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +25,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>Nr.</t>
+  </si>
+  <si>
+    <t>Muss / Kann</t>
+  </si>
+  <si>
+    <t>Anoferung</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>MUSS</t>
+  </si>
+  <si>
+    <t>KANN</t>
+  </si>
+  <si>
+    <t>Systemvielfallt</t>
+  </si>
+  <si>
+    <t>Beides</t>
+  </si>
+  <si>
+    <t>Monolitisch</t>
+  </si>
+  <si>
+    <t>Distributed SQL</t>
+  </si>
+  <si>
+    <t>Es muss mindestens eine Monolitisches
+und mindestens 2 zwei Distributed SQL Cluster ermittelt werden</t>
+  </si>
+  <si>
+    <t>Synergien</t>
+  </si>
+  <si>
+    <t>Failover</t>
+  </si>
+  <si>
+    <t>Das Clustersystem muss bei einem Nodeausfall automatisch
+auf einen anderen Node umstellt</t>
+  </si>
+  <si>
+    <t>Das umstellen auf den nächsten Node muss so schnell ausgefühgrt werden,
+das ein Disconnect mittels Client-Konfiguration (Timeout) verhindert wird.</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>Switchover</t>
+  </si>
+  <si>
+    <t>Das System muss ein Skript oder eine API liefern,
+welche einen geordeten Switchover auf einen anderen Node erlaubt</t>
+  </si>
+  <si>
+    <t>Failover-Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Beim Switchover dürfen bestehende Connections nicht getrennt werden oder sofort Wiederhergestellt werden</t>
+  </si>
+  <si>
+    <t>Beim Failover dürfen bestehende Connections nicht getrennt werden oder sofort Wiederhergestellt werden</t>
+  </si>
+  <si>
+    <t>Switchover-Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Das Clustersystem muss ein Skript oder eine API liefern,
+welche das einfache und ggf. automatisierte Restoren eines oder mehreren Nodes ermöglichen</t>
+  </si>
+  <si>
+    <t>Restore-Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Beim Wiederherstellen des Ursprungszustands darf es zu keinem Datenverlust kommen</t>
+  </si>
+  <si>
+    <t>Das Wiederherstellen des Ursprungszustands muss schnell ausgeführt werden können.</t>
+  </si>
+  <si>
+    <t>Management-API</t>
+  </si>
+  <si>
+    <t>Das Clustersystem muss Skripte oder eine API liefern,
+mit dem das System zu konfigurieren, verwalten oder überwachen zu können.
+Zudem müssen damit Nodes hinzugefügt oder entfernt werden können</t>
+  </si>
+  <si>
+    <t>Es müssen gängige Standards für Authentifizierung und Autorisierung mitgebracht werden</t>
+  </si>
+  <si>
+    <t>Replikation</t>
+  </si>
+  <si>
+    <t>Es muss eine Synchrone Replikation sichergestellt werden</t>
+  </si>
+  <si>
+    <t>Die Replikation muss sicherstellen, das es bei einem Failover/Switchover zu keinem Fehler kommt</t>
+  </si>
+  <si>
+    <t>Sharding</t>
+  </si>
+  <si>
+    <t>Die Datenkonsistenz und Datenintegrität auf den Shards muss sichergestellt werden</t>
+  </si>
+  <si>
+    <t>Die Synchronisation der Shards muss sicherstellen, dass es zu keinem Datenverlust kommt</t>
+  </si>
+  <si>
+    <t>Quorum</t>
+  </si>
+  <si>
+    <t>Das Quorum des Clustersystems muss robust genug sein,
+um eine Split-Brain-Situation zu verhindern</t>
+  </si>
+  <si>
+    <t>Das Clustersystem muss über ein Quorum-System besitzen</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Das Clustersystem muss sicherstellen, dass eine Applikation ohne Entwicklungsaufwand mittels dem PostgreSQL Wired Connector zugreifen kann</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Backups müssen mittels PostgreSQL Standards angezogen werden</t>
+  </si>
+  <si>
+    <t>Backup Restore</t>
+  </si>
+  <si>
+    <t>Backups müssen mittels PostgreSQL Standards restored werden können</t>
+  </si>
+  <si>
+    <t>Maintenance - Indizes säubern</t>
+  </si>
+  <si>
+    <t>Routine / Skript muss vorhanden sein, um bloaded Indices zu finden und zu säubern</t>
+  </si>
+  <si>
+    <t>Housekeeping - Log Rotation</t>
+  </si>
+  <si>
+    <t>Das Clustersystem muss die möglichkeit zur Log Rotation bieten</t>
+  </si>
+  <si>
+    <t>Monitoring - Cluster Healthcheck</t>
+  </si>
+  <si>
+    <t>Die wichtigsten Parameter für das Monitoring des PostgreSQL Clusters (isready, Locks, bloaded Tables),
+der Replikation (Replay Lag, Standby alive) und des PostgreSQL HA Clusters müssen Überwacht werden.</t>
+  </si>
+  <si>
+    <t>AUTOVACUUM - Parameter verwalten</t>
+  </si>
+  <si>
+    <t>äglich müssen die Parameter für den AUTOVACUUM Job berechnet werden und
+das Configfile postgresql.conf automatisch angepasst werden</t>
+  </si>
+  <si>
+    <t>SQL optimierungen - Indizes tracken und verwalten</t>
+  </si>
+  <si>
+    <t>Täglich fehlende Indizes automatisiert erstellen und nicht mehr verwendete Indizes automatisiert entfernen</t>
+  </si>
+  <si>
+    <t>User Management - Monitoring</t>
+  </si>
+  <si>
+    <t>Nicht verwendete User sollen einmal pro Woche automatisiert erkannt und in einem Report gemeldet werden</t>
+  </si>
+  <si>
+    <t>Skripte und APIs des Monolithisches Systems müssen auch in einem Distributed SQL System verwendet werden können</t>
   </si>
 </sst>
 </file>
@@ -61,8 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -343,17 +531,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lookup!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>lookup!$B$1:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D506</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
